--- a/KristiDz/Homework_Test Case/Test Case negative -1.xlsx
+++ b/KristiDz/Homework_Test Case/Test Case negative -1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>add new credit/debit card</t>
+  </si>
+  <si>
+    <t>proba</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +685,9 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
